--- a/VM52-TYPE2器件清单.xlsx
+++ b/VM52-TYPE2器件清单.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="VM52-T2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="178">
   <si>
     <t>C1, C5, C9, C12, C14, C16, C18, C20, C21, C23, C25, C35, C44, C54, C55, C56, C57, C60, C62, C66, C68, C69, C70, C71</t>
   </si>
@@ -604,6 +604,17 @@
   <si>
     <t>M1-2</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM800 GSM模块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1366,68 +1377,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1766,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:F124"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1788,1592 +1796,1600 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>9</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="40.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>9</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="27">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>6</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="81">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>24</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>3</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>1210</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>3</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>2</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>1210</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>1206</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>2</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>1210</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="27">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>7343</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="27">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>3</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
+      <c r="D22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>3</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="27">
-      <c r="A25" s="5"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>6</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>2</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>2</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>6</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="5"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="7">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5"/>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="5"/>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>4</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="9"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="9"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="5"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="9"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="67.5">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>17</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="5"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="7">
-        <v>1</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="5"/>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="23"/>
+      <c r="B43" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>2</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="5"/>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="23"/>
+      <c r="B44" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="5"/>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>2</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>3</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="5"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="23"/>
+      <c r="B47" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>3</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" ht="27">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>6</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="5"/>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="23"/>
+      <c r="B49" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="7">
-        <v>1</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" ht="40.5">
-      <c r="A50" s="5"/>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="23"/>
+      <c r="B50" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>12</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="5"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="23"/>
+      <c r="B51" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="7">
-        <v>1</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6" ht="27">
-      <c r="A52" s="5"/>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="23"/>
+      <c r="B52" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>8</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>4</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6" ht="27">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>2</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="9"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6" ht="27">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6" t="s">
+      <c r="A55" s="23"/>
+      <c r="B55" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="7">
-        <v>1</v>
-      </c>
-      <c r="D55" s="8" t="s">
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="7">
-        <v>1</v>
-      </c>
-      <c r="D56" s="8" t="s">
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>5032</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="5"/>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="23"/>
+      <c r="B57" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C57" s="7">
-        <v>1</v>
-      </c>
-      <c r="D57" s="8" t="s">
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="6">
         <v>5032</v>
       </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:6" ht="27">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="7">
-        <v>1</v>
-      </c>
-      <c r="D58" s="8" t="s">
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="6">
         <v>2920</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C60" s="6">
         <v>2</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D60" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="5"/>
-      <c r="B60" s="7" t="s">
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="23"/>
+      <c r="B61" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="7">
-        <v>1</v>
-      </c>
-      <c r="D60" s="8" t="s">
+      <c r="C61" s="6">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E61" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F60" s="9"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="5"/>
-      <c r="B61" s="7" t="s">
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="23"/>
+      <c r="B62" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="7">
-        <v>1</v>
-      </c>
-      <c r="D61" s="8" t="s">
+      <c r="C62" s="6">
+        <v>1</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="5"/>
-      <c r="B62" s="7" t="s">
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="23"/>
+      <c r="B63" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="7">
-        <v>1</v>
-      </c>
-      <c r="D62" s="8" t="s">
+      <c r="C63" s="6">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="5"/>
-      <c r="B63" s="7" t="s">
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="23"/>
+      <c r="B64" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="7">
-        <v>1</v>
-      </c>
-      <c r="D63" s="8" t="s">
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E64" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="9"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="5"/>
-      <c r="B64" s="7" t="s">
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="23"/>
+      <c r="B65" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="7">
-        <v>1</v>
-      </c>
-      <c r="D64" s="8" t="s">
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E65" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="9"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="5"/>
-      <c r="B65" s="7" t="s">
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="23"/>
+      <c r="B66" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="7">
-        <v>1</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="C66" s="6">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F65" s="9"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="5"/>
-      <c r="B66" s="7" t="s">
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="23"/>
+      <c r="B67" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C66" s="7">
-        <v>1</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E67" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="5"/>
-      <c r="B67" s="7" t="s">
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="23"/>
+      <c r="B68" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="7">
-        <v>1</v>
-      </c>
-      <c r="D67" s="8" t="s">
+      <c r="C68" s="6">
+        <v>1</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E68" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="1:6" ht="27">
-      <c r="A68" s="5" t="s">
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" ht="27">
+      <c r="A69" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C69" s="6">
         <v>3</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D69" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="1:6" ht="27">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6" t="s">
+      <c r="E69" s="6"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" ht="27">
+      <c r="A70" s="23"/>
+      <c r="B70" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="7">
-        <v>1</v>
-      </c>
-      <c r="D69" s="8" t="s">
+      <c r="C70" s="6">
+        <v>1</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="1:6" ht="27">
-      <c r="A70" s="5"/>
-      <c r="B70" s="6" t="s">
+      <c r="E70" s="6"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" ht="27">
+      <c r="A71" s="23"/>
+      <c r="B71" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C71" s="6">
         <v>2</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D71" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="1:6" ht="27">
-      <c r="A71" s="5"/>
-      <c r="B71" s="6" t="s">
+      <c r="E71" s="6"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" ht="27">
+      <c r="A72" s="23"/>
+      <c r="B72" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="7">
-        <v>1</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="5"/>
-      <c r="B72" s="7" t="s">
+      <c r="E72" s="6"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="23"/>
+      <c r="B73" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="7">
-        <v>1</v>
-      </c>
-      <c r="D72" s="8" t="s">
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="9"/>
-    </row>
-    <row r="73" spans="1:6" ht="27">
-      <c r="A73" s="5"/>
-      <c r="B73" s="6" t="s">
+      <c r="E73" s="6"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" ht="27">
+      <c r="A74" s="23"/>
+      <c r="B74" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C73" s="7">
-        <v>1</v>
-      </c>
-      <c r="D73" s="8" t="s">
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="9"/>
-    </row>
-    <row r="74" spans="1:6" ht="27">
-      <c r="A74" s="5"/>
-      <c r="B74" s="6" t="s">
+      <c r="E74" s="6"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6" ht="27.75" thickBot="1">
+      <c r="A75" s="23"/>
+      <c r="B75" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C74" s="7">
-        <v>1</v>
-      </c>
-      <c r="D74" s="8" t="s">
+      <c r="C75" s="6">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="9"/>
-    </row>
-    <row r="75" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A75" s="17"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="21"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="8"/>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="27">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="7">
-        <v>1</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="C77" s="6">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="9"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="8"/>
     </row>
     <row r="78" spans="1:6" ht="27">
-      <c r="A78" s="5"/>
-      <c r="B78" s="6" t="s">
+      <c r="A78" s="23"/>
+      <c r="B78" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="7">
-        <v>1</v>
-      </c>
-      <c r="D78" s="8" t="s">
+      <c r="C78" s="6">
+        <v>1</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="9"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="8"/>
     </row>
     <row r="79" spans="1:6" ht="27">
-      <c r="A79" s="5"/>
-      <c r="B79" s="6" t="s">
+      <c r="A79" s="23"/>
+      <c r="B79" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C79" s="7">
-        <v>1</v>
-      </c>
-      <c r="D79" s="8" t="s">
+      <c r="C79" s="6">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="9"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="8"/>
     </row>
     <row r="80" spans="1:6" ht="27">
-      <c r="A80" s="5"/>
-      <c r="B80" s="6" t="s">
+      <c r="A80" s="23"/>
+      <c r="B80" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="8" t="s">
+      <c r="C80" s="6"/>
+      <c r="D80" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="9"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="8"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="24"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="9"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="8"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="24"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="9"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="8"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="24"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="9"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="8"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="24"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="9"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="8"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="24"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="9"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="8"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="24"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="9"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="8"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="24"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="9"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="8"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="24"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="9"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="8"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="24"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="9"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="8"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="24"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="9"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="8"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="24"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="9"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="8"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="24"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="9"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="8"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="24"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="9"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="8"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="24"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="9"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="8"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="24"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="9"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="8"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="24"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="9"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="8"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="24"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="9"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="8"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="24"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="9"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="8"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="24"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="9"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="8"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="24"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="9"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="8"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="24"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="9"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="8"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="24"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="9"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="8"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="24"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="9"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="8"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="24"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="9"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="8"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="24"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="9"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="8"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="24"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="9"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="8"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="24"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="9"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="8"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="24"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="9"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="8"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="24"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="9"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="8"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="24"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="9"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="8"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="24"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="9"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="8"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="24"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="9"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="8"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="24"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="9"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="8"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="24"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="9"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="8"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="24"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="9"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="8"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="24"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="9"/>
+      <c r="A116" s="21"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="8"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="24"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="9"/>
+      <c r="A117" s="21"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="8"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="24"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="9"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="8"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="24"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="9"/>
+      <c r="A119" s="21"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="8"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="24"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="9"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="8"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="24"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="9"/>
+      <c r="A121" s="21"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="8"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="24"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="9"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="8"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="24"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="9"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="8"/>
     </row>
     <row r="124" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A124" s="25"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="21"/>
+      <c r="A124" s="22"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="A60:A68"/>
+    <mergeCell ref="A69:A75"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="A41:A45"/>
@@ -3382,7 +3398,7 @@
     <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <printOptions headings="1"/>
+  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/VM52-TYPE2器件清单.xlsx
+++ b/VM52-TYPE2器件清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14340" windowWidth="14340" windowHeight="15450"/>
+    <workbookView windowWidth="28695" windowHeight="15450"/>
   </bookViews>
   <sheets>
     <sheet name="VM52-T2" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
   <si>
     <t>VM52-TYPE2-03</t>
   </si>
@@ -454,10 +454,19 @@
     <t>接插件</t>
   </si>
   <si>
+    <t>3030WV-F-2*2P</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>扬展</t>
+  </si>
+  <si>
     <t>2.54mm间距 3P 立插插座</t>
   </si>
   <si>
-    <t>J1, J9, J13</t>
+    <t>J9, J13</t>
   </si>
   <si>
     <t>2.54mm间距 2P 立插插座</t>
@@ -526,12 +535,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,21 +558,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -663,14 +657,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1253,106 +1239,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1367,10 +1353,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1379,26 +1365,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1411,9 +1397,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1435,7 +1418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -1480,10 +1463,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1498,7 +1490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -1853,8 +1845,8 @@
   <sheetPr/>
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1867,1578 +1859,1586 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="19.5" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>3</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" ht="27" spans="1:6">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>7</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" ht="27" spans="1:6">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>6</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>2</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" ht="81" spans="1:6">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>23</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>2</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>3</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>1210</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="11">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>3</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>2</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>1210</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="11">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>1206</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>2</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>1210</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" ht="27" spans="1:6">
-      <c r="A20" s="10"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>2</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>7343</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" ht="27" spans="1:6">
-      <c r="A21" s="10"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>3</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>3</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="11">
-        <v>1</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" ht="27" spans="1:6">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>6</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="11">
-        <v>1</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="11">
-        <v>1</v>
-      </c>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="11">
-        <v>1</v>
-      </c>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="13"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="11">
-        <v>1</v>
-      </c>
-      <c r="D28" s="14" t="s">
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>2</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>2</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" ht="27" spans="1:6">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>6</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="13"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="11">
-        <v>1</v>
-      </c>
-      <c r="D32" s="14" t="s">
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="13"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="11">
-        <v>1</v>
-      </c>
-      <c r="D33" s="14" t="s">
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>4</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="13"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="13"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="13"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="22"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="22"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" ht="14.25" spans="1:6">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="26"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:6">
-      <c r="A41" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" ht="54" spans="1:6">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>14</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="13"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="11">
-        <v>1</v>
-      </c>
-      <c r="D43" s="14" t="s">
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="13"/>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="11">
-        <v>1</v>
-      </c>
-      <c r="D44" s="14" t="s">
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>2</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="13"/>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <v>3</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <v>3</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" ht="27" spans="1:6">
-      <c r="A48" s="10"/>
-      <c r="B48" s="17" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="10">
         <v>6</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="13"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="11">
-        <v>1</v>
-      </c>
-      <c r="D49" s="14" t="s">
+      <c r="C49" s="10">
+        <v>1</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" ht="40.5" spans="1:6">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="10">
         <v>12</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="13"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="11">
-        <v>1</v>
-      </c>
-      <c r="D51" s="14" t="s">
+      <c r="C51" s="10">
+        <v>1</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" ht="27" spans="1:6">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="10">
         <v>8</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F52" s="13"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="10">
         <v>4</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F53" s="13"/>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" ht="27" spans="1:6">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="10">
         <v>2</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="13"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="11">
-        <v>1</v>
-      </c>
-      <c r="D55" s="14" t="s">
+      <c r="C55" s="10">
+        <v>1</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="10">
         <v>5032</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="11">
-        <v>1</v>
-      </c>
-      <c r="D56" s="14" t="s">
+      <c r="C56" s="10">
+        <v>1</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="10">
         <v>5032</v>
       </c>
-      <c r="F56" s="13"/>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" ht="27" spans="1:6">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="11">
-        <v>1</v>
-      </c>
-      <c r="D57" s="14" t="s">
+      <c r="C57" s="10">
+        <v>1</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <v>2920</v>
       </c>
-      <c r="F57" s="13"/>
+      <c r="F57" s="12"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="11">
-        <v>1</v>
-      </c>
-      <c r="D58" s="14" t="s">
+      <c r="C58" s="10">
+        <v>1</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="13"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="12"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="10">
         <v>2</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F59" s="13"/>
+      <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11" t="s">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="11">
-        <v>1</v>
-      </c>
-      <c r="D60" s="14" t="s">
+      <c r="C60" s="10">
+        <v>1</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F60" s="13"/>
+      <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11" t="s">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="11">
-        <v>1</v>
-      </c>
-      <c r="D61" s="14" t="s">
+      <c r="C61" s="10">
+        <v>1</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F61" s="13"/>
+      <c r="F61" s="12"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="10"/>
-      <c r="B62" s="11" t="s">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="11">
-        <v>1</v>
-      </c>
-      <c r="D62" s="14" t="s">
+      <c r="C62" s="10">
+        <v>1</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F62" s="13"/>
+      <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="10"/>
-      <c r="B63" s="11" t="s">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="11">
-        <v>1</v>
-      </c>
-      <c r="D63" s="14" t="s">
+      <c r="C63" s="10">
+        <v>1</v>
+      </c>
+      <c r="D63" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F63" s="13"/>
+      <c r="F63" s="12"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="10"/>
-      <c r="B64" s="11" t="s">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="11">
-        <v>1</v>
-      </c>
-      <c r="D64" s="14" t="s">
+      <c r="C64" s="10">
+        <v>1</v>
+      </c>
+      <c r="D64" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F64" s="13"/>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="10"/>
-      <c r="B65" s="11" t="s">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="11">
-        <v>1</v>
-      </c>
-      <c r="D65" s="14" t="s">
+      <c r="C65" s="10">
+        <v>1</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F65" s="13"/>
+      <c r="F65" s="12"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="10"/>
-      <c r="B66" s="11" t="s">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="11">
-        <v>1</v>
-      </c>
-      <c r="D66" s="14" t="s">
+      <c r="C66" s="10">
+        <v>1</v>
+      </c>
+      <c r="D66" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" ht="27" spans="1:6">
-      <c r="A67" s="27" t="s">
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="10">
+        <v>1</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" ht="27" spans="1:6">
+      <c r="A68" s="30"/>
+      <c r="B68" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="10">
+        <v>2</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="12"/>
+    </row>
+    <row r="69" ht="27" spans="1:6">
+      <c r="A69" s="30"/>
+      <c r="B69" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="10">
+        <v>1</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" ht="27" spans="1:6">
+      <c r="A70" s="30"/>
+      <c r="B70" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="10">
+        <v>2</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" ht="27" spans="1:6">
+      <c r="A71" s="30"/>
+      <c r="B71" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="10">
+        <v>1</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="30"/>
+      <c r="B72" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="10">
+        <v>1</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" ht="27" spans="1:6">
+      <c r="A73" s="30"/>
+      <c r="B73" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="10">
+        <v>1</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" ht="27" spans="1:6">
+      <c r="A74" s="30"/>
+      <c r="B74" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="10">
+        <v>1</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" customFormat="1" spans="1:6">
+      <c r="A75" s="30"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="34"/>
+    </row>
+    <row r="76" customFormat="1" spans="1:6">
+      <c r="A76" s="30"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="34"/>
+    </row>
+    <row r="77" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A77" s="35"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="34"/>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="1:6">
+      <c r="A78" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="13"/>
-    </row>
-    <row r="68" ht="27" spans="1:6">
-      <c r="A68" s="28"/>
-      <c r="B68" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="11">
-        <v>1</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="13"/>
-    </row>
-    <row r="69" ht="27" spans="1:6">
-      <c r="A69" s="28"/>
-      <c r="B69" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="11">
-        <v>2</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" ht="27" spans="1:6">
-      <c r="A70" s="28"/>
-      <c r="B70" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="11">
-        <v>1</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="13"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="28"/>
-      <c r="B71" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" s="11">
-        <v>1</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="13"/>
-    </row>
-    <row r="72" ht="27" spans="1:6">
-      <c r="A72" s="28"/>
-      <c r="B72" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C72" s="11">
-        <v>1</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="13"/>
-    </row>
-    <row r="73" ht="27" spans="1:6">
-      <c r="A73" s="28"/>
-      <c r="B73" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="11">
-        <v>1</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="13"/>
-    </row>
-    <row r="74" customFormat="1" spans="1:6">
-      <c r="A74" s="28"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="32"/>
-    </row>
-    <row r="75" customFormat="1" spans="1:6">
-      <c r="A75" s="28"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="32"/>
-    </row>
-    <row r="76" customFormat="1" spans="1:6">
-      <c r="A76" s="28"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="32"/>
-    </row>
-    <row r="77" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A77" s="33"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="32"/>
-    </row>
-    <row r="78" s="2" customFormat="1" spans="1:6">
-      <c r="A78" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="79" ht="27" spans="1:6">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B79" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="11">
-        <v>1</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="13"/>
+      <c r="B79" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="10">
+        <v>1</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="12"/>
     </row>
     <row r="80" ht="27" spans="1:6">
-      <c r="A80" s="10"/>
-      <c r="B80" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="11">
-        <v>1</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="13"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="10">
+        <v>1</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="12"/>
     </row>
     <row r="81" ht="27" spans="1:6">
-      <c r="A81" s="10"/>
-      <c r="B81" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="11">
-        <v>1</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="13"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="10">
+        <v>1</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="12"/>
     </row>
     <row r="82" ht="27" spans="1:6">
-      <c r="A82" s="10"/>
-      <c r="B82" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="13"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="12"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="34"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="13"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="34"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="13"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="12"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="34"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="13"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="12"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="34"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="13"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="12"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="34"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="13"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="12"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="34"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="13"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="12"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="34"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="13"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="12"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="34"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="13"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="12"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="34"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="13"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="12"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="34"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="13"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="12"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="34"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="13"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="12"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="34"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="13"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="12"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="34"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="13"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="12"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="34"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="13"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="12"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="34"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="13"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="12"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="34"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="13"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="12"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="34"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="13"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="12"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="34"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="13"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="12"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="34"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="13"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="12"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="34"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="13"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="12"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="34"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="13"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="12"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="34"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="13"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="12"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="34"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="13"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="12"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="34"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="13"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="12"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="34"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="13"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="12"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="34"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="13"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="12"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="34"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="13"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="12"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="34"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="13"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="12"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="34"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="13"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="12"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="34"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="13"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="12"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="34"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="13"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="12"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="34"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="13"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="12"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="34"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="13"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="12"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="34"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="13"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="12"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="34"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="13"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="12"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="34"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="13"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="12"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="34"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="13"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="12"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="34"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="13"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="12"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="34"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="13"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="12"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="34"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="13"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="12"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="34"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="13"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="12"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="34"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="13"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="12"/>
     </row>
     <row r="125" ht="14.25" spans="1:6">
-      <c r="A125" s="35"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="26"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3452,7 +3452,7 @@
     <mergeCell ref="A79:A82"/>
   </mergeCells>
   <printOptions headings="1" gridLines="1"/>
-  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.297916666666667" footer="0.297916666666667"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
